--- a/product_scraper/product_scraper/reference_data/category_mapping.xlsx
+++ b/product_scraper/product_scraper/reference_data/category_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/viveckh/Dropbox/qarece (1)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sujilmaharjan/Desktop/qarece-web-crawler/product_scraper/product_scraper/reference_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEBFD9A-CF95-BB4B-9A17-D9E1A0081B53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3371655A-72CD-2442-AF84-6E96A8397798}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19040" xr2:uid="{F17F2B2A-9E0A-A048-AED8-948A876E98F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1524" uniqueCount="222">
   <si>
     <t>Macys</t>
   </si>
@@ -649,6 +649,48 @@
   </si>
   <si>
     <t>s_subcategory2</t>
+  </si>
+  <si>
+    <t>Pants &amp; Capris</t>
+  </si>
+  <si>
+    <t>Sports Bras</t>
+  </si>
+  <si>
+    <t>Plus Sizes</t>
+  </si>
+  <si>
+    <t>Swimwear</t>
+  </si>
+  <si>
+    <t>Petites</t>
+  </si>
+  <si>
+    <t>Jackets &amp; Blazers</t>
+  </si>
+  <si>
+    <t>All Active Clothing</t>
+  </si>
+  <si>
+    <t>All Bras</t>
+  </si>
+  <si>
+    <t>Women's Brands</t>
+  </si>
+  <si>
+    <t>Sports Fan Shop By Lids</t>
+  </si>
+  <si>
+    <t>Wear to Work</t>
+  </si>
+  <si>
+    <t>Maternity</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Panties &amp; Lingerie</t>
   </si>
 </sst>
 </file>
@@ -728,8 +770,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{612AC14E-9AD8-2441-AAC5-252E45CD2BDD}" name="Table1" displayName="Table1" ref="A1:I1048576" totalsRowShown="0">
-  <autoFilter ref="A1:I1048576" xr:uid="{2B8E3754-8475-2C49-870C-DF69EB552EDE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{612AC14E-9AD8-2441-AAC5-252E45CD2BDD}" name="Table1" displayName="Table1" ref="A1:I1048567" totalsRowShown="0">
+  <autoFilter ref="A1:I1048567" xr:uid="{2B8E3754-8475-2C49-870C-DF69EB552EDE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Macys"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{B36FF81B-CB5D-504D-ABE4-AFC67D3D93CB}" name="store"/>
     <tableColumn id="2" xr3:uid="{52893C3C-465C-4949-B090-219514EB7391}" name="s_category"/>
@@ -1042,13 +1090,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6A8EBE4-F5A7-034C-B229-236882C68316}">
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:I241"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="116" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A210" zoomScale="116" workbookViewId="0">
+      <selection activeCell="G213" sqref="G213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="15.83203125" customWidth="1"/>
@@ -2657,7 +2705,7 @@
         <v>67</v>
       </c>
       <c r="G68" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -3351,7 +3399,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>142</v>
       </c>
@@ -3371,7 +3419,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>142</v>
       </c>
@@ -3391,7 +3439,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -3411,7 +3459,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>142</v>
       </c>
@@ -3431,7 +3479,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>142</v>
       </c>
@@ -3451,7 +3499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>142</v>
       </c>
@@ -3471,7 +3519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>142</v>
       </c>
@@ -3491,7 +3539,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>142</v>
       </c>
@@ -3511,7 +3559,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>142</v>
       </c>
@@ -3531,7 +3579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>142</v>
       </c>
@@ -3551,7 +3599,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>142</v>
       </c>
@@ -3571,7 +3619,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -3591,7 +3639,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>142</v>
       </c>
@@ -3611,7 +3659,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>142</v>
       </c>
@@ -3631,7 +3679,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>142</v>
       </c>
@@ -3651,7 +3699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>142</v>
       </c>
@@ -3671,7 +3719,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>142</v>
       </c>
@@ -3691,7 +3739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>142</v>
       </c>
@@ -3711,7 +3759,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>142</v>
       </c>
@@ -3731,7 +3779,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>142</v>
       </c>
@@ -3751,7 +3799,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>142</v>
       </c>
@@ -3771,7 +3819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>142</v>
       </c>
@@ -3791,7 +3839,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -3811,7 +3859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -3831,7 +3879,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>171</v>
       </c>
@@ -3857,7 +3905,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>171</v>
       </c>
@@ -3883,7 +3931,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>171</v>
       </c>
@@ -3909,7 +3957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>171</v>
       </c>
@@ -3935,7 +3983,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>171</v>
       </c>
@@ -3961,7 +4009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>171</v>
       </c>
@@ -3987,7 +4035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>171</v>
       </c>
@@ -4013,7 +4061,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -4039,7 +4087,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>171</v>
       </c>
@@ -4065,7 +4113,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>171</v>
       </c>
@@ -4091,7 +4139,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>171</v>
       </c>
@@ -4117,7 +4165,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>171</v>
       </c>
@@ -4143,7 +4191,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>171</v>
       </c>
@@ -4169,7 +4217,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>171</v>
       </c>
@@ -4195,7 +4243,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>171</v>
       </c>
@@ -4221,7 +4269,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -4247,7 +4295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>171</v>
       </c>
@@ -4273,7 +4321,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>171</v>
       </c>
@@ -4299,7 +4347,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>171</v>
       </c>
@@ -4325,7 +4373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>171</v>
       </c>
@@ -4351,7 +4399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>171</v>
       </c>
@@ -4377,7 +4425,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>171</v>
       </c>
@@ -4403,7 +4451,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>171</v>
       </c>
@@ -4429,7 +4477,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -4455,7 +4503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>171</v>
       </c>
@@ -4481,7 +4529,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>171</v>
       </c>
@@ -4507,7 +4555,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>171</v>
       </c>
@@ -4533,7 +4581,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -4559,7 +4607,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -4585,7 +4633,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>171</v>
       </c>
@@ -4611,7 +4659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>171</v>
       </c>
@@ -4637,7 +4685,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>171</v>
       </c>
@@ -4663,7 +4711,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>171</v>
       </c>
@@ -4689,7 +4737,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>171</v>
       </c>
@@ -4715,7 +4763,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>171</v>
       </c>
@@ -4741,7 +4789,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>171</v>
       </c>
@@ -4767,7 +4815,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>171</v>
       </c>
@@ -4793,7 +4841,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -4819,7 +4867,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -4842,7 +4890,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>171</v>
       </c>
@@ -4865,7 +4913,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>171</v>
       </c>
@@ -4888,7 +4936,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -4911,7 +4959,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -4934,7 +4982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>171</v>
       </c>
@@ -4957,7 +5005,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>171</v>
       </c>
@@ -4980,7 +5028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>171</v>
       </c>
@@ -5003,7 +5051,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>171</v>
       </c>
@@ -5026,7 +5074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>171</v>
       </c>
@@ -5049,7 +5097,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>171</v>
       </c>
@@ -5072,7 +5120,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>171</v>
       </c>
@@ -5095,7 +5143,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>171</v>
       </c>
@@ -5118,7 +5166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>171</v>
       </c>
@@ -5141,7 +5189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>171</v>
       </c>
@@ -5164,7 +5212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>171</v>
       </c>
@@ -5187,7 +5235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>171</v>
       </c>
@@ -5210,7 +5258,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>171</v>
       </c>
@@ -5233,7 +5281,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>171</v>
       </c>
@@ -5256,7 +5304,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>171</v>
       </c>
@@ -5279,7 +5327,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>171</v>
       </c>
@@ -5302,7 +5350,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>171</v>
       </c>
@@ -5325,7 +5373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>171</v>
       </c>
@@ -5348,7 +5396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>171</v>
       </c>
@@ -5371,7 +5419,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>171</v>
       </c>
@@ -5394,7 +5442,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>171</v>
       </c>
@@ -5417,7 +5465,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>171</v>
       </c>
@@ -5440,7 +5488,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>171</v>
       </c>
@@ -5463,7 +5511,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>171</v>
       </c>
@@ -5486,7 +5534,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>171</v>
       </c>
@@ -5509,7 +5557,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>171</v>
       </c>
@@ -5532,6 +5580,585 @@
         <v>196</v>
       </c>
     </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" t="s">
+        <v>67</v>
+      </c>
+      <c r="F200" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" t="s">
+        <v>67</v>
+      </c>
+      <c r="C201" t="s">
+        <v>208</v>
+      </c>
+      <c r="F201" t="s">
+        <v>67</v>
+      </c>
+      <c r="G201" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202" t="s">
+        <v>67</v>
+      </c>
+      <c r="C202" t="s">
+        <v>209</v>
+      </c>
+      <c r="F202" t="s">
+        <v>67</v>
+      </c>
+      <c r="G202" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203" t="s">
+        <v>210</v>
+      </c>
+      <c r="C203" t="s">
+        <v>73</v>
+      </c>
+      <c r="F203" t="s">
+        <v>67</v>
+      </c>
+      <c r="G203" t="s">
+        <v>210</v>
+      </c>
+      <c r="H203" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204" t="s">
+        <v>210</v>
+      </c>
+      <c r="C204" t="s">
+        <v>208</v>
+      </c>
+      <c r="F204" t="s">
+        <v>67</v>
+      </c>
+      <c r="G204" t="s">
+        <v>210</v>
+      </c>
+      <c r="H204" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" t="s">
+        <v>67</v>
+      </c>
+      <c r="C205" t="s">
+        <v>211</v>
+      </c>
+      <c r="F205" t="s">
+        <v>67</v>
+      </c>
+      <c r="G205" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206" t="s">
+        <v>212</v>
+      </c>
+      <c r="C206" t="s">
+        <v>96</v>
+      </c>
+      <c r="F206" t="s">
+        <v>67</v>
+      </c>
+      <c r="G206" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207" t="s">
+        <v>210</v>
+      </c>
+      <c r="C207" t="s">
+        <v>87</v>
+      </c>
+      <c r="F207" t="s">
+        <v>67</v>
+      </c>
+      <c r="G207" t="s">
+        <v>210</v>
+      </c>
+      <c r="H207" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208" t="s">
+        <v>210</v>
+      </c>
+      <c r="C208" t="s">
+        <v>96</v>
+      </c>
+      <c r="F208" t="s">
+        <v>67</v>
+      </c>
+      <c r="G208" t="s">
+        <v>210</v>
+      </c>
+      <c r="H208" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" t="s">
+        <v>210</v>
+      </c>
+      <c r="C209" t="s">
+        <v>92</v>
+      </c>
+      <c r="F209" t="s">
+        <v>67</v>
+      </c>
+      <c r="G209" t="s">
+        <v>210</v>
+      </c>
+      <c r="H209" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" t="s">
+        <v>67</v>
+      </c>
+      <c r="C210" t="s">
+        <v>213</v>
+      </c>
+      <c r="F210" t="s">
+        <v>67</v>
+      </c>
+      <c r="G210" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>212</v>
+      </c>
+      <c r="C211" t="s">
+        <v>73</v>
+      </c>
+      <c r="F211" t="s">
+        <v>67</v>
+      </c>
+      <c r="G211" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212" t="s">
+        <v>210</v>
+      </c>
+      <c r="F212" t="s">
+        <v>67</v>
+      </c>
+      <c r="G212" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213" t="s">
+        <v>67</v>
+      </c>
+      <c r="C213" t="s">
+        <v>71</v>
+      </c>
+      <c r="D213" t="s">
+        <v>221</v>
+      </c>
+      <c r="F213" t="s">
+        <v>67</v>
+      </c>
+      <c r="G213" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214" t="s">
+        <v>67</v>
+      </c>
+      <c r="C214" t="s">
+        <v>214</v>
+      </c>
+      <c r="F214" t="s">
+        <v>67</v>
+      </c>
+      <c r="G214" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" t="s">
+        <v>67</v>
+      </c>
+      <c r="C215" t="s">
+        <v>215</v>
+      </c>
+      <c r="F215" t="s">
+        <v>67</v>
+      </c>
+      <c r="G215" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216" t="s">
+        <v>216</v>
+      </c>
+      <c r="F216" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217" t="s">
+        <v>212</v>
+      </c>
+      <c r="C217" t="s">
+        <v>86</v>
+      </c>
+      <c r="F217" t="s">
+        <v>67</v>
+      </c>
+      <c r="G217" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218" t="s">
+        <v>210</v>
+      </c>
+      <c r="C218" t="s">
+        <v>213</v>
+      </c>
+      <c r="F218" t="s">
+        <v>67</v>
+      </c>
+      <c r="G218" t="s">
+        <v>210</v>
+      </c>
+      <c r="H218" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219" t="s">
+        <v>212</v>
+      </c>
+      <c r="C219" t="s">
+        <v>208</v>
+      </c>
+      <c r="F219" t="s">
+        <v>67</v>
+      </c>
+      <c r="G219" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220" t="s">
+        <v>212</v>
+      </c>
+      <c r="C220" t="s">
+        <v>92</v>
+      </c>
+      <c r="F220" t="s">
+        <v>67</v>
+      </c>
+      <c r="G220" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" t="s">
+        <v>212</v>
+      </c>
+      <c r="C221" t="s">
+        <v>213</v>
+      </c>
+      <c r="F221" t="s">
+        <v>67</v>
+      </c>
+      <c r="G221" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223" t="s">
+        <v>67</v>
+      </c>
+      <c r="C223" t="s">
+        <v>217</v>
+      </c>
+      <c r="F223" t="s">
+        <v>67</v>
+      </c>
+      <c r="G223" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224" t="s">
+        <v>212</v>
+      </c>
+      <c r="C224" t="s">
+        <v>76</v>
+      </c>
+      <c r="F224" t="s">
+        <v>67</v>
+      </c>
+      <c r="G224" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" t="s">
+        <v>210</v>
+      </c>
+      <c r="C225" t="s">
+        <v>86</v>
+      </c>
+      <c r="F225" t="s">
+        <v>67</v>
+      </c>
+      <c r="G225" t="s">
+        <v>210</v>
+      </c>
+      <c r="H225" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" t="s">
+        <v>210</v>
+      </c>
+      <c r="C226" t="s">
+        <v>76</v>
+      </c>
+      <c r="F226" t="s">
+        <v>67</v>
+      </c>
+      <c r="G226" t="s">
+        <v>210</v>
+      </c>
+      <c r="H226" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227" t="s">
+        <v>212</v>
+      </c>
+      <c r="C227" t="s">
+        <v>87</v>
+      </c>
+      <c r="F227" t="s">
+        <v>67</v>
+      </c>
+      <c r="G227" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" t="s">
+        <v>67</v>
+      </c>
+      <c r="C228" t="s">
+        <v>218</v>
+      </c>
+      <c r="F228" t="s">
+        <v>67</v>
+      </c>
+      <c r="G228" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229" t="s">
+        <v>210</v>
+      </c>
+      <c r="C229" t="s">
+        <v>69</v>
+      </c>
+      <c r="F229" t="s">
+        <v>67</v>
+      </c>
+      <c r="G229" t="s">
+        <v>210</v>
+      </c>
+      <c r="H229" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230" t="s">
+        <v>67</v>
+      </c>
+      <c r="C230" t="s">
+        <v>219</v>
+      </c>
+      <c r="F230" t="s">
+        <v>67</v>
+      </c>
+      <c r="G230" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" t="s">
+        <v>67</v>
+      </c>
+      <c r="C231" t="s">
+        <v>220</v>
+      </c>
+      <c r="F231" t="s">
+        <v>67</v>
+      </c>
+      <c r="G231" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" t="s">
+        <v>210</v>
+      </c>
+      <c r="C232" t="s">
+        <v>211</v>
+      </c>
+      <c r="F232" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="241" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
